--- a/тестовые примеры.xlsx
+++ b/тестовые примеры.xlsx
@@ -16,13 +16,15 @@
     <definedName name="_xi1">Лист1!#REF!</definedName>
     <definedName name="_xi2">Лист1!#REF!</definedName>
     <definedName name="_yi">Лист1!#REF!</definedName>
+    <definedName name="m">Лист1!$B$17</definedName>
+    <definedName name="N">Лист1!$B$16</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>x1</t>
   </si>
@@ -52,6 +54,18 @@
   </si>
   <si>
     <t>просто введи коэффициенты, x1, x2 и получи результат</t>
+  </si>
+  <si>
+    <t>Y'э</t>
+  </si>
+  <si>
+    <t>Y'т</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -74,7 +88,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -105,6 +119,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -118,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -126,6 +146,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -430,14 +451,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -604,6 +627,12 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7">
+        <v>8</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -611,6 +640,12 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -625,8 +660,12 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -634,67 +673,149 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="5">
+        <f>LN(C7)</f>
+        <v>0.96271064666877371</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.96271064667434303</v>
+      </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5">
+        <f>(A20-B20)^2</f>
+        <v>3.1017356235954077E-23</v>
+      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="5">
+        <f t="shared" ref="A21:A30" si="1">LN(C8)</f>
+        <v>3.1662650989841845</v>
+      </c>
+      <c r="B21" s="5">
+        <v>3.1662650989299301</v>
+      </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5">
+        <f t="shared" ref="D21:D27" si="2">(A21-B21)^2</f>
+        <v>2.943537615434567E-21</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="5">
+        <f t="shared" si="1"/>
+        <v>1.5235651387847713</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1.5235651387882101</v>
+      </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5">
+        <f t="shared" si="2"/>
+        <v>1.1825378428252313E-23</v>
+      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="5">
+        <f t="shared" si="1"/>
+        <v>3.2504227481713452</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3.2504227481239898</v>
+      </c>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5">
+        <f t="shared" si="2"/>
+        <v>2.2425389186406622E-21</v>
+      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
+      <c r="A24" s="5">
+        <f t="shared" si="1"/>
+        <v>2.0863553233343866</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2.08635532328781</v>
+      </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="5">
+        <f t="shared" si="2"/>
+        <v>2.1693722542748652E-21</v>
+      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="5">
+        <f t="shared" si="1"/>
+        <v>0.58971162594595938</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.58971162593635795</v>
+      </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="D25" s="5">
+        <f t="shared" si="2"/>
+        <v>9.2187472669093604E-23</v>
+      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
+      <c r="A26" s="5">
+        <f t="shared" si="1"/>
+        <v>3.3763775959491205</v>
+      </c>
+      <c r="B26" s="5">
+        <v>3.3763775959120799</v>
+      </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5">
+        <f t="shared" si="2"/>
+        <v>1.3720055160995214E-21</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4462650989841843</v>
+      </c>
+      <c r="B27">
+        <v>1.4462650989813</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="2"/>
+        <v>8.3195292520677534E-24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="D30">
+        <f>SUM(D20:D27)/(N-3-1)</f>
+        <v>2.2177010102587459E-21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/тестовые примеры.xlsx
+++ b/тестовые примеры.xlsx
@@ -16,8 +16,8 @@
     <definedName name="_xi1">Лист1!#REF!</definedName>
     <definedName name="_xi2">Лист1!#REF!</definedName>
     <definedName name="_yi">Лист1!#REF!</definedName>
-    <definedName name="m">Лист1!$B$17</definedName>
-    <definedName name="N">Лист1!$B$16</definedName>
+    <definedName name="m">Лист1!$B$31</definedName>
+    <definedName name="N">Лист1!$B$30</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -26,46 +26,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>a0</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>ГЕРЕНАЦИЯ ТЕСТОВЫХ ПРИМЕРОВ</t>
+  </si>
+  <si>
+    <t>Таблица экспериментальных данных</t>
+  </si>
+  <si>
+    <t>Коэффициенты</t>
+  </si>
+  <si>
+    <t>просто введи коэффициенты, x1, x2 и получи результат</t>
+  </si>
+  <si>
+    <t>Y'э</t>
+  </si>
+  <si>
+    <t>Y'т</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
     <t>x1</t>
-  </si>
-  <si>
-    <t>x2</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>a0</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>ГЕРЕНАЦИЯ ТЕСТОВЫХ ПРИМЕРОВ</t>
-  </si>
-  <si>
-    <t>Таблица экспериментальных данных</t>
-  </si>
-  <si>
-    <t>Коэффициенты</t>
-  </si>
-  <si>
-    <t>просто введи коэффициенты, x1, x2 и получи результат</t>
-  </si>
-  <si>
-    <t>Y'э</t>
-  </si>
-  <si>
-    <t>Y'т</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>m</t>
   </si>
 </sst>
 </file>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D7" sqref="D7:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,122 +466,146 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5"/>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="G6" s="2">
-        <v>0.2</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>0.5</v>
+        <v>123</v>
       </c>
       <c r="B7" s="4">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:C14" si="0">B7^_a2*EXP(_a0+_a1*A7)</f>
-        <v>2.6187854633014584</v>
+        <f t="shared" ref="C7:C18" si="0">B7^_a2*EXP(_a0+_a1*A7)</f>
+        <v>3504.0813696004939</v>
+      </c>
+      <c r="D7">
+        <f ca="1">C7+RANDBETWEEN(-2090,2000)</f>
+        <v>5274.0813696004934</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
-        <v>0.86</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>3</v>
+        <v>140</v>
       </c>
       <c r="B8" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
-        <v>23.718731603466672</v>
+        <v>7901.9559673366566</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:D18" ca="1" si="1">C8+RANDBETWEEN(-2090,2000)</f>
+        <v>7407.9559673366566</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="2">
-        <v>0.24</v>
+        <v>-1.2E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="B9" s="4">
-        <v>6.9</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
-        <v>4.588554904061203</v>
+        <v>33333.562461475434</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="1"/>
+        <v>33272.562461475434</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="B10" s="4">
-        <v>7.1</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>25.801245041129615</v>
+        <v>42548.980308484162</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="1"/>
+        <v>43415.980308484162</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>2</v>
+        <v>173</v>
       </c>
       <c r="B11" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>8.0555018961479767</v>
+        <v>39111.86373184152</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="1"/>
+        <v>37814.86373184152</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>0.34</v>
+        <v>140</v>
       </c>
       <c r="B12" s="4">
-        <v>1.5</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>1.8034682669473296</v>
+        <v>7921.4997025241455</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="1"/>
+        <v>9379.4997025241464</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -589,14 +613,18 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="B13" s="4">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
-        <v>29.264570779419376</v>
+        <v>10066.796105138492</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="1"/>
+        <v>8524.7961051384918</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -604,217 +632,295 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>1</v>
+        <v>138</v>
       </c>
       <c r="B14" s="4">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
-        <v>4.2472219015793717</v>
+        <v>7129.7482192492771</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="1"/>
+        <v>7219.7482192492771</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="4">
+        <v>192</v>
+      </c>
+      <c r="B15" s="4">
+        <v>45</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>95828.944226097621</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="1"/>
+        <v>95570.944226097621</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="4">
+        <v>195</v>
+      </c>
+      <c r="B16" s="4">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>110429.45628819629</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="1"/>
+        <v>109509.45628819629</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="4">
+        <v>199</v>
+      </c>
+      <c r="B17" s="4">
+        <v>66</v>
+      </c>
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>133482.29724131813</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="1"/>
+        <v>132059.29724131813</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="4">
+        <v>205</v>
+      </c>
+      <c r="B18" s="4">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>178950.69475996136</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="1"/>
+        <v>180302.69475996136</v>
+      </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <f>LN(C7)</f>
-        <v>0.96271064666877371</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0.96271064667434303</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5">
-        <f>(A20-B20)^2</f>
-        <v>3.1017356235954077E-23</v>
-      </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <f t="shared" ref="A21:A30" si="1">LN(C8)</f>
-        <v>3.1662650989841845</v>
-      </c>
-      <c r="B21" s="5">
-        <v>3.1662650989299301</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5">
-        <f t="shared" ref="D21:D27" si="2">(A21-B21)^2</f>
-        <v>2.943537615434567E-21</v>
-      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <f t="shared" si="1"/>
-        <v>1.5235651387847713</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1.5235651387882101</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1825378428252313E-23</v>
-      </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <f t="shared" si="1"/>
-        <v>3.2504227481713452</v>
-      </c>
-      <c r="B23" s="5">
-        <v>3.2504227481239898</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5">
-        <f t="shared" si="2"/>
-        <v>2.2425389186406622E-21</v>
-      </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <f t="shared" si="1"/>
-        <v>2.0863553233343866</v>
-      </c>
-      <c r="B24" s="5">
-        <v>2.08635532328781</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5">
-        <f t="shared" si="2"/>
-        <v>2.1693722542748652E-21</v>
-      </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <f t="shared" si="1"/>
-        <v>0.58971162594595938</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.58971162593635795</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5">
-        <f t="shared" si="2"/>
-        <v>9.2187472669093604E-23</v>
-      </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <f t="shared" si="1"/>
-        <v>3.3763775959491205</v>
-      </c>
-      <c r="B26" s="5">
-        <v>3.3763775959120799</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5">
-        <f t="shared" si="2"/>
-        <v>1.3720055160995214E-21</v>
-      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4462650989841843</v>
-      </c>
-      <c r="B27">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="7">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="7">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <f t="shared" ref="A34:A41" si="2">LN(C7)</f>
+        <v>8.1616836737046068</v>
+      </c>
+      <c r="B34" s="5">
+        <v>0.96271064667434303</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5">
+        <f>(A34-B34)^2</f>
+        <v>51.825212643909282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <f t="shared" si="2"/>
+        <v>8.974865598611677</v>
+      </c>
+      <c r="B35" s="5">
+        <v>3.1662650989299301</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5">
+        <f t="shared" ref="D35:D41" si="3">(A35-B35)^2</f>
+        <v>33.739839764903039</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <f t="shared" si="2"/>
+        <v>10.414320050122758</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1.5235651387882101</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5">
+        <f t="shared" si="3"/>
+        <v>79.04552289341936</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <f t="shared" si="2"/>
+        <v>10.658411169166403</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3.2504227481239898</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5">
+        <f t="shared" si="3"/>
+        <v>54.87829244629846</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <f t="shared" si="2"/>
+        <v>10.574181120202542</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2.08635532328781</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5">
+        <f t="shared" si="3"/>
+        <v>72.043186758771213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <f t="shared" si="2"/>
+        <v>8.977335823262127</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.58971162593635795</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5">
+        <f t="shared" si="3"/>
+        <v>70.352239675564746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <f t="shared" si="2"/>
+        <v>9.2169977727385266</v>
+      </c>
+      <c r="B40" s="5">
+        <v>3.3763775959120799</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5">
+        <f t="shared" si="3"/>
+        <v>34.112844049952187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <f t="shared" si="2"/>
+        <v>8.8720311999165631</v>
+      </c>
+      <c r="B41">
         <v>1.4462650989813</v>
       </c>
-      <c r="D27" s="5">
-        <f t="shared" si="2"/>
-        <v>8.3195292520677534E-24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="D30">
-        <f>SUM(D20:D27)/(N-3-1)</f>
-        <v>2.2177010102587459E-21</v>
+      <c r="D41" s="5">
+        <f t="shared" si="3"/>
+        <v>55.142002185799299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="D44">
+        <f>SUM(D34:D41)/(N-3-1)</f>
+        <v>112.7847851046544</v>
       </c>
     </row>
   </sheetData>

--- a/тестовые примеры.xlsx
+++ b/тестовые примеры.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>x2</t>
   </si>
@@ -66,13 +66,16 @@
   </si>
   <si>
     <t>x1</t>
+  </si>
+  <si>
+    <t>Услуч</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +86,12 @@
     <font>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -138,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -147,6 +156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -454,7 +464,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D18"/>
+      <selection activeCell="A7" sqref="A7:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,119 +503,122 @@
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>123</v>
+        <v>4.7</v>
       </c>
       <c r="B7" s="4">
-        <v>34</v>
+        <v>1.3</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:C18" si="0">B7^_a2*EXP(_a0+_a1*A7)</f>
-        <v>3504.0813696004939</v>
-      </c>
-      <c r="D7">
-        <f ca="1">C7+RANDBETWEEN(-2090,2000)</f>
-        <v>5274.0813696004934</v>
+        <f>B7^_a2*EXP(_a0+_a1*A7)</f>
+        <v>67.078993202428009</v>
+      </c>
+      <c r="D7" s="8">
+        <f ca="1">C7+RANDBETWEEN(-10,10)</f>
+        <v>69.078993202428009</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G7" s="2">
-        <v>4.8000000000000001E-2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>140</v>
+        <v>2.1</v>
       </c>
       <c r="B8" s="4">
-        <v>43</v>
+        <v>3.6</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="0"/>
-        <v>7901.9559673366566</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ref="D8:D18" ca="1" si="1">C8+RANDBETWEEN(-2090,2000)</f>
-        <v>7407.9559673366566</v>
+        <f>B8^_a2*EXP(_a0+_a1*A8)</f>
+        <v>28.572022802497592</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" ref="D8:D18" ca="1" si="0">C8+RANDBETWEEN(-10,10)</f>
+        <v>27.572022802497592</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="2">
-        <v>-1.2E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>170</v>
+        <v>1.2</v>
       </c>
       <c r="B9" s="4">
-        <v>45</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>33333.562461475434</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="1"/>
-        <v>33272.562461475434</v>
+        <f>B9^_a2*EXP(_a0+_a1*A9)</f>
+        <v>21.195347268088685</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>12.195347268088685</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>175</v>
+        <v>0.5</v>
       </c>
       <c r="B10" s="4">
-        <v>32</v>
+        <v>3.6</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="0"/>
-        <v>42548.980308484162</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="1"/>
-        <v>43415.980308484162</v>
+        <f>B10^_a2*EXP(_a0+_a1*A10)</f>
+        <v>16.583828194470613</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>13.583828194470613</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>173</v>
+        <v>0.67</v>
       </c>
       <c r="B11" s="4">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="0"/>
-        <v>39111.86373184152</v>
-      </c>
-      <c r="D11">
-        <f t="shared" ca="1" si="1"/>
-        <v>37814.86373184152</v>
+        <f>B11^_a2*EXP(_a0+_a1*A11)</f>
+        <v>18.083886455367686</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>11.083886455367686</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>140</v>
+        <v>1.35</v>
       </c>
       <c r="B12" s="4">
-        <v>35</v>
+        <v>6.6</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="0"/>
-        <v>7921.4997025241455</v>
-      </c>
-      <c r="D12">
-        <f t="shared" ca="1" si="1"/>
-        <v>9379.4997025241464</v>
+        <f>B12^_a2*EXP(_a0+_a1*A12)</f>
+        <v>22.547227050934758</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>27.547227050934758</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -613,18 +626,18 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>145</v>
+        <v>2.34</v>
       </c>
       <c r="B13" s="4">
-        <v>36</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>10066.796105138492</v>
-      </c>
-      <c r="D13">
-        <f t="shared" ca="1" si="1"/>
-        <v>8524.7961051384918</v>
+        <f>B13^_a2*EXP(_a0+_a1*A13)</f>
+        <v>31.188459426962122</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.188459426962126</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -632,18 +645,18 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>138</v>
+        <v>5.67</v>
       </c>
       <c r="B14" s="4">
-        <v>76</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="0"/>
-        <v>7129.7482192492771</v>
-      </c>
-      <c r="D14">
-        <f t="shared" ca="1" si="1"/>
-        <v>7219.7482192492771</v>
+        <f>B14^_a2*EXP(_a0+_a1*A14)</f>
+        <v>99.114076195823458</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>97.114076195823458</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -651,18 +664,18 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>192</v>
+        <v>1.24</v>
       </c>
       <c r="B15" s="4">
-        <v>45</v>
+        <v>3.4</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>95828.944226097621</v>
-      </c>
-      <c r="D15">
-        <f t="shared" ca="1" si="1"/>
-        <v>95570.944226097621</v>
+        <f>B15^_a2*EXP(_a0+_a1*A15)</f>
+        <v>21.291613503419473</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>30.291613503419473</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -670,18 +683,18 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>195</v>
+        <v>3.12</v>
       </c>
       <c r="B16" s="4">
-        <v>54</v>
+        <v>2.1</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="0"/>
-        <v>110429.45628819629</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="1"/>
-        <v>109509.45628819629</v>
+        <f>B16^_a2*EXP(_a0+_a1*A16)</f>
+        <v>39.767823094414389</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>34.767823094414389</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -689,18 +702,18 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>199</v>
+        <v>2.33</v>
       </c>
       <c r="B17" s="4">
-        <v>66</v>
+        <v>3.4</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="0"/>
-        <v>133482.29724131813</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="1"/>
-        <v>132059.29724131813</v>
+        <f>B17^_a2*EXP(_a0+_a1*A17)</f>
+        <v>30.843106183994898</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.843106183994898</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -708,18 +721,18 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>205</v>
+        <v>0.35</v>
       </c>
       <c r="B18" s="4">
-        <v>43</v>
+        <v>1.2</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="0"/>
-        <v>178950.69475996136</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="1"/>
-        <v>180302.69475996136</v>
+        <f>B18^_a2*EXP(_a0+_a1*A18)</f>
+        <v>15.248324782686888</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>24.248324782686886</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -801,8 +814,8 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <f t="shared" ref="A34:A41" si="2">LN(C7)</f>
-        <v>8.1616836737046068</v>
+        <f t="shared" ref="A34:A41" si="1">LN(C7)</f>
+        <v>4.2058709279340256</v>
       </c>
       <c r="B34" s="5">
         <v>0.96271064667434303</v>
@@ -810,104 +823,104 @@
       <c r="C34" s="5"/>
       <c r="D34" s="5">
         <f>(A34-B34)^2</f>
-        <v>51.825212643909282</v>
+        <v>10.518088609940385</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <f t="shared" si="2"/>
-        <v>8.974865598611677</v>
+        <f t="shared" si="1"/>
+        <v>3.3524280153638619</v>
       </c>
       <c r="B35" s="5">
         <v>3.1662650989299301</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5">
-        <f t="shared" ref="D35:D41" si="3">(A35-B35)^2</f>
-        <v>33.739839764903039</v>
+        <f t="shared" ref="D35:D41" si="2">(A35-B35)^2</f>
+        <v>3.4656631455187069E-2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <f t="shared" si="2"/>
-        <v>10.414320050122758</v>
+        <f t="shared" si="1"/>
+        <v>3.0537816891048517</v>
       </c>
       <c r="B36" s="5">
         <v>1.5235651387882101</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5">
-        <f t="shared" si="3"/>
-        <v>79.04552289341936</v>
+        <f t="shared" si="2"/>
+        <v>2.341562690862963</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <f t="shared" si="2"/>
-        <v>10.658411169166403</v>
+        <f t="shared" si="1"/>
+        <v>2.8084280153638619</v>
       </c>
       <c r="B37" s="5">
         <v>3.2504227481239898</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5">
-        <f t="shared" si="3"/>
-        <v>54.87829244629846</v>
+        <f t="shared" si="2"/>
+        <v>0.1953593437876969</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <f t="shared" si="2"/>
-        <v>10.574181120202542</v>
+        <f t="shared" si="1"/>
+        <v>2.8950212906782791</v>
       </c>
       <c r="B38" s="5">
         <v>2.08635532328781</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5">
-        <f t="shared" si="3"/>
-        <v>72.043186758771213</v>
+        <f t="shared" si="2"/>
+        <v>0.65394064681556308</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <f t="shared" si="2"/>
-        <v>8.977335823262127</v>
+        <f t="shared" si="1"/>
+        <v>3.1156120894709716</v>
       </c>
       <c r="B39" s="5">
         <v>0.58971162593635795</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5">
-        <f t="shared" si="3"/>
-        <v>70.352239675564746</v>
+        <f t="shared" si="2"/>
+        <v>6.3801731516843745</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <f t="shared" si="2"/>
-        <v>9.2169977727385266</v>
+        <f t="shared" si="1"/>
+        <v>3.4400481362277264</v>
       </c>
       <c r="B40" s="5">
         <v>3.3763775959120799</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5">
-        <f t="shared" si="3"/>
-        <v>34.112844049952187</v>
+        <f t="shared" si="2"/>
+        <v>4.0539377040863739E-3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <f t="shared" si="2"/>
-        <v>8.8720311999165631</v>
+        <f t="shared" si="1"/>
+        <v>4.5962714715702955</v>
       </c>
       <c r="B41">
         <v>1.4462650989813</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="3"/>
-        <v>55.142002185799299</v>
+        <f t="shared" si="2"/>
+        <v>9.9225401473512811</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -920,7 +933,7 @@
       <c r="A44" s="5"/>
       <c r="D44">
         <f>SUM(D34:D41)/(N-3-1)</f>
-        <v>112.7847851046544</v>
+        <v>7.5125937899003841</v>
       </c>
     </row>
   </sheetData>
